--- a/experimrmt.xlsx
+++ b/experimrmt.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zz860\Desktop\panpan\PythonCodes\github\milvus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD936B5-0849-4637-80C8-D36CEEB6E1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9A65DD-54AD-4DF9-8D3D-A98B5B181CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="3120" windowWidth="18068" windowHeight="9307" xr2:uid="{1F52A9B9-BB39-4280-932B-DF4FA4A2DB7B}"/>
+    <workbookView xWindow="2310" yWindow="3120" windowWidth="18068" windowHeight="9307" activeTab="5" xr2:uid="{1F52A9B9-BB39-4280-932B-DF4FA4A2DB7B}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="2" r:id="rId2"/>
-    <sheet name="2" sheetId="4" r:id="rId3"/>
-    <sheet name="3" sheetId="5" r:id="rId4"/>
-    <sheet name="4" sheetId="6" r:id="rId5"/>
-    <sheet name="5" sheetId="7" r:id="rId6"/>
-    <sheet name="6" sheetId="8" r:id="rId7"/>
-    <sheet name="7" sheetId="9" r:id="rId8"/>
-    <sheet name="8" sheetId="10" r:id="rId9"/>
+    <sheet name="0" sheetId="11" r:id="rId2"/>
+    <sheet name="1" sheetId="2" r:id="rId3"/>
+    <sheet name="2" sheetId="4" r:id="rId4"/>
+    <sheet name="3" sheetId="5" r:id="rId5"/>
+    <sheet name="4" sheetId="6" r:id="rId6"/>
+    <sheet name="5" sheetId="7" r:id="rId7"/>
+    <sheet name="6" sheetId="8" r:id="rId8"/>
+    <sheet name="7" sheetId="9" r:id="rId9"/>
+    <sheet name="8" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -276,6 +277,285 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514377</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D2470B-7CD3-D0D6-D2FF-E1F1BC9E5F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3752877" cy="2409843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190527</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727897CF-BA57-8624-B289-AF760D1395F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343901" y="0"/>
+          <a:ext cx="3610001" cy="2552719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571528</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BA1C17-11B1-4858-9459-97BD942349CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343526" y="209550"/>
+          <a:ext cx="3752877" cy="2409843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2605087</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3A7006-034B-44C9-AE31-CF93C068270F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="338137"/>
+          <a:ext cx="3448075" cy="2514618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61939</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8AB19B-0FBB-97A8-AEED-B06618E545AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7643813" y="252412"/>
+          <a:ext cx="3533801" cy="3000397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152427</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5328A83-110A-55F1-F779-9185676C1987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9477375" y="214312"/>
+          <a:ext cx="3733827" cy="3076597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0604FBC1-135B-481C-B251-50A8A8F95258}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -801,11 +1081,124 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A4B77D-99D7-40E1-AC86-9F378FA4C633}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893BB8B2-08C8-4A62-9C90-C585E2E3170F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DC2040-4F49-47F3-A780-8F03CAFFB4E1}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -897,10 +1290,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9469809-9D38-49CA-99DB-64867185B890}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -969,7 +1363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720F8668-E29B-448E-8F52-3A8B00C6DA4E}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -1038,11 +1432,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682BDF19-43F9-47F6-A32A-5A69E64801C2}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
@@ -1134,10 +1528,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BECE8F-BF70-4BF5-83B7-CDC1904B9059}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1236,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D2FC95-A7CA-48FB-B8AB-41ECA55BF0E3}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -1305,7 +1700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8F9CD8-2519-48E3-9688-14B7D3041EF1}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1402,103 +1797,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A4B77D-99D7-40E1-AC86-9F378FA4C633}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="2" width="37" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>